--- a/medicine/Enfance/Kevin_Brooks_(écrivain)/Kevin_Brooks_(écrivain).xlsx
+++ b/medicine/Enfance/Kevin_Brooks_(écrivain)/Kevin_Brooks_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kevin_Brooks_(%C3%A9crivain)</t>
+          <t>Kevin_Brooks_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kevin M. Brooks, né le 30 mars 1959 à Exeter en Angleterre, est un écrivain britannique, auteur de romans pour adolescents et pour adultes. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kevin_Brooks_(%C3%A9crivain)</t>
+          <t>Kevin_Brooks_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kevin Brooks est né en 1959 à Exeter. Après avoir exercé différents métiers, musicien, bricoleur préposé de la station d'essence crématoire, greffier de la fonction publique, vendeur de hot-dog au zoo de Londres, commis de bureau de poste, et commis de bureau des chemins de fer . Son premier roman, intitulé Martyn Pig (également intitulé Comment j'ai tué mon père sans le faire exprès), est publié en 2002 et il a remporté le prix Branford Boase en 2003. Il a également écrit Lucas en 2002 qui a été nommé pour le Guardian Fiction Prize et Booktrust Teenage Prize en 2003. Il a également remporté le Nord-Est Book Award en 2004 et le Deutscher Jugendliteraturpreis en 2006.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kevin_Brooks_(%C3%A9crivain)</t>
+          <t>Kevin_Brooks_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,21 +558,128 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Johnny Delgado
-(en) Johnny Delgado: Private Detective, 2006
+          <t>Série Johnny Delgado</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Johnny Delgado: Private Detective, 2006
 (en) Like Father, Like Son, 2006
 (en) Private Detective, 2006
-(en) Johnny Delgado: In father's Steps, 2008
-Série PI John Crane
-(en) A Dance of Ghosts, 2011
+(en) Johnny Delgado: In father's Steps, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kevin_Brooks_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kevin_Brooks_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série PI John Crane</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) A Dance of Ghosts, 2011
 (en) Until the Darkness Comes, 2012
-(en) Wrapped in White, 2013
-Série Travis Delaney
-(en) The Ultimate Truth, 2014
+(en) Wrapped in White, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kevin_Brooks_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kevin_Brooks_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Travis Delaney</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Ultimate Truth, 2014
 (en) The Danger Game, 2014
-(en) The Snake Trap, 2015
-Romans indépendants
-Martyn Pig : Innocent Criminel, Hachette Jeunesse, 2002 ((en) Martyn Pig)Réédité sous le titre Comment j'ai tué mon père sans le faire exprès aux éditions Milan en 2007
+(en) The Snake Trap, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kevin_Brooks_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kevin_Brooks_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Martyn Pig : Innocent Criminel, Hachette Jeunesse, 2002 ((en) Martyn Pig)Réédité sous le titre Comment j'ai tué mon père sans le faire exprès aux éditions Milan en 2007
 (en) Lucas, 2002
 (en) Kissing the Rain, 2004
 (en) Bloodline, 2004
